--- a/ResultadoEleicoesDistritos/PORTO_MARCO DE CANAVESES.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_MARCO DE CANAVESES.xlsx
@@ -597,64 +597,64 @@
         <v>13635</v>
       </c>
       <c r="H2" t="n">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="I2" t="n">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="J2" t="n">
-        <v>5521</v>
+        <v>5601</v>
       </c>
       <c r="K2" t="n">
         <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>1471</v>
+        <v>1518</v>
       </c>
       <c r="M2" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="N2" t="n">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="S2" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="T2" t="n">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="U2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="V2" t="n">
-        <v>8789</v>
+        <v>8785</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>8861</v>
+        <v>8719</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
